--- a/moneglisedata.xlsx
+++ b/moneglisedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\projet\content\browser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E1910-06C5-41A0-AC43-2997558C37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0DCA76-97D7-4F3D-A167-DF20C6516245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -738,13 +738,16 @@
   </si>
   <si>
     <t>10 H 30</t>
+  </si>
+  <si>
+    <t>Ny Sampana Lehilahy Kristianina eto Melun manasa anareo ny Alahady 16 Juin, fotoana hankalazana ny andron'ny Ray izao. Mahafaly anay ny fahatongavanareo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -757,6 +760,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -782,7 +791,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,23 +1754,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" style="2"/>
     <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>50</v>
       </c>
       <c r="C1" t="s">
@@ -1777,25 +1787,25 @@
       <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
+      <c r="D2" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -1806,7 +1816,7 @@
       <c r="G2" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>235</v>
       </c>
       <c r="I2" t="s">
@@ -1817,7 +1827,7 @@
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>236</v>
       </c>
       <c r="C3" t="s">
@@ -1835,7 +1845,7 @@
       <c r="G3" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>176</v>
       </c>
       <c r="I3" t="s">
@@ -1846,7 +1856,7 @@
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>237</v>
       </c>
       <c r="C4" t="s">
@@ -1864,7 +1874,7 @@
       <c r="G4" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>177</v>
       </c>
       <c r="I4" t="s">
@@ -1875,7 +1885,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>236</v>
       </c>
       <c r="C5" t="s">
@@ -1893,7 +1903,7 @@
       <c r="G5" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>178</v>
       </c>
       <c r="I5" t="s">
@@ -1904,7 +1914,7 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>237</v>
       </c>
       <c r="C6" t="s">
@@ -1922,7 +1932,7 @@
       <c r="G6" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>179</v>
       </c>
       <c r="I6" t="s">
@@ -1933,7 +1943,7 @@
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>236</v>
       </c>
       <c r="C7" t="s">
@@ -1951,7 +1961,7 @@
       <c r="G7" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>180</v>
       </c>
       <c r="I7" t="s">
@@ -1962,7 +1972,7 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>237</v>
       </c>
       <c r="C8" t="s">
@@ -1980,7 +1990,7 @@
       <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>181</v>
       </c>
       <c r="I8" t="s">
@@ -1991,7 +2001,7 @@
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>236</v>
       </c>
       <c r="C9" t="s">
@@ -2009,7 +2019,7 @@
       <c r="G9" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>182</v>
       </c>
       <c r="I9" t="s">
@@ -2020,7 +2030,7 @@
       <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>237</v>
       </c>
       <c r="C10" t="s">
@@ -2038,7 +2048,7 @@
       <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>183</v>
       </c>
       <c r="I10" t="s">
@@ -2049,7 +2059,7 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>236</v>
       </c>
       <c r="C11" t="s">
@@ -2067,7 +2077,7 @@
       <c r="G11" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>184</v>
       </c>
       <c r="I11" t="s">
@@ -2078,7 +2088,7 @@
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>237</v>
       </c>
       <c r="C12" t="s">
@@ -2096,7 +2106,7 @@
       <c r="G12" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>185</v>
       </c>
       <c r="I12" t="s">
@@ -2107,7 +2117,7 @@
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>236</v>
       </c>
       <c r="C13" t="s">
@@ -2125,7 +2135,7 @@
       <c r="G13" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>186</v>
       </c>
       <c r="I13" t="s">
@@ -2136,7 +2146,7 @@
       <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>237</v>
       </c>
       <c r="C14" t="s">
@@ -2154,7 +2164,7 @@
       <c r="G14" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>187</v>
       </c>
       <c r="I14" t="s">
@@ -2165,7 +2175,7 @@
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>236</v>
       </c>
       <c r="C15" t="s">
@@ -2183,7 +2193,7 @@
       <c r="G15" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>188</v>
       </c>
       <c r="I15" t="s">
@@ -2194,7 +2204,7 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>237</v>
       </c>
       <c r="C16" t="s">
@@ -2212,7 +2222,7 @@
       <c r="G16" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>189</v>
       </c>
       <c r="I16" t="s">
@@ -2223,7 +2233,7 @@
       <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>236</v>
       </c>
       <c r="C17" t="s">
@@ -2241,7 +2251,7 @@
       <c r="G17" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>190</v>
       </c>
       <c r="I17" t="s">
@@ -2252,7 +2262,7 @@
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>237</v>
       </c>
       <c r="C18" t="s">
@@ -2270,7 +2280,7 @@
       <c r="G18" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>191</v>
       </c>
       <c r="I18" t="s">
@@ -2281,7 +2291,7 @@
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>236</v>
       </c>
       <c r="C19" t="s">
@@ -2299,7 +2309,7 @@
       <c r="G19" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>192</v>
       </c>
       <c r="I19" t="s">
@@ -2310,7 +2320,7 @@
       <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>237</v>
       </c>
       <c r="C20" t="s">
@@ -2328,7 +2338,7 @@
       <c r="G20" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>193</v>
       </c>
       <c r="I20" t="s">
@@ -2339,7 +2349,7 @@
       <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>236</v>
       </c>
       <c r="C21" t="s">
@@ -2357,7 +2367,7 @@
       <c r="G21" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>194</v>
       </c>
       <c r="I21" t="s">
@@ -2368,7 +2378,7 @@
       <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>237</v>
       </c>
       <c r="C22" t="s">
@@ -2386,7 +2396,7 @@
       <c r="G22" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>195</v>
       </c>
       <c r="I22" t="s">
@@ -2397,7 +2407,7 @@
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>236</v>
       </c>
       <c r="C23" t="s">
@@ -2415,7 +2425,7 @@
       <c r="G23" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>196</v>
       </c>
       <c r="I23" t="s">
@@ -2426,7 +2436,7 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>237</v>
       </c>
       <c r="C24" t="s">
@@ -2444,7 +2454,7 @@
       <c r="G24" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>197</v>
       </c>
       <c r="I24" t="s">
@@ -2455,7 +2465,7 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>236</v>
       </c>
       <c r="C25" t="s">
@@ -2473,7 +2483,7 @@
       <c r="G25" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>198</v>
       </c>
       <c r="I25" t="s">
@@ -2484,7 +2494,7 @@
       <c r="A26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>237</v>
       </c>
       <c r="C26" t="s">
@@ -2502,7 +2512,7 @@
       <c r="G26" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>199</v>
       </c>
       <c r="I26" t="s">
@@ -2513,7 +2523,7 @@
       <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>236</v>
       </c>
       <c r="C27" t="s">
@@ -2531,7 +2541,7 @@
       <c r="G27" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>200</v>
       </c>
       <c r="I27" t="s">
@@ -2542,7 +2552,7 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>237</v>
       </c>
       <c r="C28" t="s">
@@ -2560,7 +2570,7 @@
       <c r="G28" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>201</v>
       </c>
       <c r="I28" t="s">
@@ -2571,7 +2581,7 @@
       <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>236</v>
       </c>
       <c r="C29" t="s">
@@ -2589,7 +2599,7 @@
       <c r="G29" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>202</v>
       </c>
       <c r="I29" t="s">
@@ -2600,7 +2610,7 @@
       <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>237</v>
       </c>
       <c r="C30" t="s">
@@ -2618,7 +2628,7 @@
       <c r="G30" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>203</v>
       </c>
       <c r="I30" t="s">
@@ -2629,7 +2639,7 @@
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>236</v>
       </c>
       <c r="C31" t="s">
@@ -2647,7 +2657,7 @@
       <c r="G31" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>204</v>
       </c>
       <c r="I31" t="s">
@@ -2658,7 +2668,7 @@
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>237</v>
       </c>
       <c r="C32" t="s">
@@ -2676,7 +2686,7 @@
       <c r="G32" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>205</v>
       </c>
       <c r="I32" t="s">
@@ -2687,7 +2697,7 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>236</v>
       </c>
       <c r="C33" t="s">
@@ -2705,7 +2715,7 @@
       <c r="G33" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>150</v>
       </c>
       <c r="I33" t="s">
@@ -2716,7 +2726,7 @@
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>237</v>
       </c>
       <c r="C34" t="s">
@@ -2734,7 +2744,7 @@
       <c r="G34" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>151</v>
       </c>
       <c r="I34" t="s">
@@ -2745,7 +2755,7 @@
       <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>236</v>
       </c>
       <c r="C35" t="s">
@@ -2763,7 +2773,7 @@
       <c r="G35" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>152</v>
       </c>
       <c r="I35" t="s">
@@ -2774,7 +2784,7 @@
       <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>237</v>
       </c>
       <c r="C36" t="s">
@@ -2792,7 +2802,7 @@
       <c r="G36" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" t="s">
         <v>153</v>
       </c>
       <c r="I36" t="s">
@@ -2803,7 +2813,7 @@
       <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>236</v>
       </c>
       <c r="C37" t="s">
@@ -2821,7 +2831,7 @@
       <c r="G37" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>154</v>
       </c>
       <c r="I37" t="s">
@@ -2832,7 +2842,7 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>237</v>
       </c>
       <c r="C38" t="s">
@@ -2850,7 +2860,7 @@
       <c r="G38" t="s">
         <v>141</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" t="s">
         <v>155</v>
       </c>
       <c r="I38" t="s">
@@ -2861,7 +2871,7 @@
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>236</v>
       </c>
       <c r="C39" t="s">
@@ -2879,7 +2889,7 @@
       <c r="G39" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>156</v>
       </c>
       <c r="I39" t="s">
@@ -2890,7 +2900,7 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>237</v>
       </c>
       <c r="C40" t="s">
@@ -2908,7 +2918,7 @@
       <c r="G40" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
         <v>157</v>
       </c>
       <c r="I40" t="s">
@@ -2919,7 +2929,7 @@
       <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>236</v>
       </c>
       <c r="C41" t="s">
@@ -2937,7 +2947,7 @@
       <c r="G41" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>158</v>
       </c>
       <c r="I41" t="s">
@@ -2948,7 +2958,7 @@
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>237</v>
       </c>
       <c r="C42" t="s">
@@ -2966,7 +2976,7 @@
       <c r="G42" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>159</v>
       </c>
       <c r="I42" t="s">
@@ -2977,7 +2987,7 @@
       <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>236</v>
       </c>
       <c r="C43" t="s">
@@ -2995,7 +3005,7 @@
       <c r="G43" t="s">
         <v>143</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>160</v>
       </c>
       <c r="I43" t="s">
@@ -3006,7 +3016,7 @@
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>237</v>
       </c>
       <c r="C44" t="s">
@@ -3024,7 +3034,7 @@
       <c r="G44" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>161</v>
       </c>
       <c r="I44" t="s">
@@ -3035,7 +3045,7 @@
       <c r="A45" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>236</v>
       </c>
       <c r="C45" t="s">
@@ -3053,7 +3063,7 @@
       <c r="G45" t="s">
         <v>143</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>162</v>
       </c>
       <c r="I45" t="s">
@@ -3064,7 +3074,7 @@
       <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>237</v>
       </c>
       <c r="C46" t="s">
@@ -3082,7 +3092,7 @@
       <c r="G46" t="s">
         <v>143</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
         <v>163</v>
       </c>
       <c r="I46" t="s">
@@ -3093,7 +3103,7 @@
       <c r="A47" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>236</v>
       </c>
       <c r="C47" t="s">
@@ -3111,7 +3121,7 @@
       <c r="G47" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>164</v>
       </c>
       <c r="I47" t="s">
@@ -3122,7 +3132,7 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>237</v>
       </c>
       <c r="C48" t="s">
@@ -3140,7 +3150,7 @@
       <c r="G48" t="s">
         <v>143</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" t="s">
         <v>165</v>
       </c>
       <c r="I48" t="s">
@@ -3151,7 +3161,7 @@
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>236</v>
       </c>
       <c r="C49" t="s">
@@ -3169,7 +3179,7 @@
       <c r="G49" t="s">
         <v>143</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" t="s">
         <v>166</v>
       </c>
       <c r="I49" t="s">
@@ -3180,7 +3190,7 @@
       <c r="A50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>237</v>
       </c>
       <c r="C50" t="s">
@@ -3198,7 +3208,7 @@
       <c r="G50" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>167</v>
       </c>
       <c r="I50" t="s">
@@ -3209,7 +3219,7 @@
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>236</v>
       </c>
       <c r="C51" t="s">
@@ -3227,7 +3237,7 @@
       <c r="G51" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" t="s">
         <v>168</v>
       </c>
       <c r="I51" t="s">
@@ -3238,7 +3248,7 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>237</v>
       </c>
       <c r="C52" t="s">
@@ -3256,7 +3266,7 @@
       <c r="G52" t="s">
         <v>144</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>169</v>
       </c>
       <c r="I52" t="s">
@@ -3267,7 +3277,7 @@
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>236</v>
       </c>
       <c r="C53" t="s">
@@ -3285,7 +3295,7 @@
       <c r="G53" t="s">
         <v>144</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" t="s">
         <v>170</v>
       </c>
       <c r="I53" t="s">
@@ -3296,7 +3306,7 @@
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>237</v>
       </c>
       <c r="C54" t="s">
@@ -3314,7 +3324,7 @@
       <c r="G54" t="s">
         <v>144</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" t="s">
         <v>171</v>
       </c>
       <c r="I54" t="s">
@@ -3325,7 +3335,7 @@
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>236</v>
       </c>
       <c r="C55" t="s">
@@ -3343,7 +3353,7 @@
       <c r="G55" t="s">
         <v>144</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" t="s">
         <v>172</v>
       </c>
       <c r="I55" t="s">
@@ -3354,7 +3364,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>237</v>
       </c>
       <c r="C56" t="s">
@@ -3372,7 +3382,7 @@
       <c r="G56" t="s">
         <v>144</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" t="s">
         <v>173</v>
       </c>
       <c r="I56" t="s">
@@ -3383,7 +3393,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>236</v>
       </c>
       <c r="C57" t="s">
@@ -3401,7 +3411,7 @@
       <c r="G57" t="s">
         <v>144</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" t="s">
         <v>174</v>
       </c>
       <c r="I57" t="s">
@@ -3412,7 +3422,7 @@
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>237</v>
       </c>
       <c r="C58" t="s">
@@ -3430,7 +3440,7 @@
       <c r="G58" t="s">
         <v>144</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" t="s">
         <v>175</v>
       </c>
       <c r="I58" t="s">
@@ -3441,7 +3451,7 @@
       <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>236</v>
       </c>
       <c r="C59" t="s">
@@ -3459,7 +3469,7 @@
       <c r="G59" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>206</v>
       </c>
       <c r="I59" t="s">
@@ -3470,7 +3480,7 @@
       <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>237</v>
       </c>
       <c r="C60" t="s">
@@ -3488,7 +3498,7 @@
       <c r="G60" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>207</v>
       </c>
       <c r="I60" t="s">
@@ -3499,7 +3509,7 @@
       <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>236</v>
       </c>
       <c r="C61" t="s">
@@ -3517,7 +3527,7 @@
       <c r="G61" t="s">
         <v>145</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" t="s">
         <v>208</v>
       </c>
       <c r="I61" t="s">
@@ -3528,7 +3538,7 @@
       <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>237</v>
       </c>
       <c r="C62" t="s">
@@ -3546,7 +3556,7 @@
       <c r="G62" t="s">
         <v>145</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>209</v>
       </c>
       <c r="I62" t="s">
@@ -3557,7 +3567,7 @@
       <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>236</v>
       </c>
       <c r="C63" t="s">
@@ -3575,7 +3585,7 @@
       <c r="G63" t="s">
         <v>145</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>210</v>
       </c>
       <c r="I63" t="s">
@@ -3586,7 +3596,7 @@
       <c r="A64" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>237</v>
       </c>
       <c r="C64" t="s">
@@ -3604,7 +3614,7 @@
       <c r="G64" t="s">
         <v>145</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>211</v>
       </c>
       <c r="I64" t="s">
@@ -3615,7 +3625,7 @@
       <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>236</v>
       </c>
       <c r="C65" t="s">
@@ -3633,7 +3643,7 @@
       <c r="G65" t="s">
         <v>145</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>212</v>
       </c>
       <c r="I65" t="s">
@@ -3644,7 +3654,7 @@
       <c r="A66" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>237</v>
       </c>
       <c r="C66" t="s">
@@ -3662,7 +3672,7 @@
       <c r="G66" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>213</v>
       </c>
       <c r="I66" t="s">
@@ -3673,7 +3683,7 @@
       <c r="A67" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>236</v>
       </c>
       <c r="C67" t="s">
@@ -3691,7 +3701,7 @@
       <c r="G67" t="s">
         <v>145</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" t="s">
         <v>214</v>
       </c>
       <c r="I67" t="s">
@@ -3702,7 +3712,7 @@
       <c r="A68" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>237</v>
       </c>
       <c r="C68" t="s">
@@ -3720,7 +3730,7 @@
       <c r="G68" t="s">
         <v>146</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" t="s">
         <v>215</v>
       </c>
       <c r="I68" t="s">
@@ -3731,7 +3741,7 @@
       <c r="A69" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>236</v>
       </c>
       <c r="C69" t="s">
@@ -3749,7 +3759,7 @@
       <c r="G69" t="s">
         <v>146</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" t="s">
         <v>216</v>
       </c>
       <c r="I69" t="s">
@@ -3760,7 +3770,7 @@
       <c r="A70" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>237</v>
       </c>
       <c r="C70" t="s">
@@ -3778,7 +3788,7 @@
       <c r="G70" t="s">
         <v>146</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" t="s">
         <v>217</v>
       </c>
       <c r="I70" t="s">
@@ -3789,7 +3799,7 @@
       <c r="A71" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>236</v>
       </c>
       <c r="C71" t="s">
@@ -3807,7 +3817,7 @@
       <c r="G71" t="s">
         <v>146</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" t="s">
         <v>218</v>
       </c>
       <c r="I71" t="s">
@@ -3818,7 +3828,7 @@
       <c r="A72" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>237</v>
       </c>
       <c r="C72" t="s">
@@ -3836,7 +3846,7 @@
       <c r="G72" t="s">
         <v>146</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" t="s">
         <v>219</v>
       </c>
       <c r="I72" t="s">
@@ -3847,7 +3857,7 @@
       <c r="A73" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>236</v>
       </c>
       <c r="C73" t="s">
@@ -3865,7 +3875,7 @@
       <c r="G73" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" t="s">
         <v>220</v>
       </c>
       <c r="I73" t="s">
@@ -3876,7 +3886,7 @@
       <c r="A74" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>237</v>
       </c>
       <c r="C74" t="s">
@@ -3894,7 +3904,7 @@
       <c r="G74" t="s">
         <v>146</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" t="s">
         <v>221</v>
       </c>
       <c r="I74" t="s">
@@ -3905,7 +3915,7 @@
       <c r="A75" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>236</v>
       </c>
       <c r="C75" t="s">
@@ -3923,7 +3933,7 @@
       <c r="G75" t="s">
         <v>146</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" t="s">
         <v>222</v>
       </c>
       <c r="I75" t="s">
@@ -3934,7 +3944,7 @@
       <c r="A76" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>237</v>
       </c>
       <c r="C76" t="s">
@@ -3952,7 +3962,7 @@
       <c r="G76" t="s">
         <v>147</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
         <v>223</v>
       </c>
       <c r="I76" t="s">
@@ -3963,7 +3973,7 @@
       <c r="A77" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>236</v>
       </c>
       <c r="C77" t="s">
@@ -3981,7 +3991,7 @@
       <c r="G77" t="s">
         <v>147</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>224</v>
       </c>
       <c r="I77" t="s">
@@ -3992,7 +4002,7 @@
       <c r="A78" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>237</v>
       </c>
       <c r="C78" t="s">
@@ -4010,7 +4020,7 @@
       <c r="G78" t="s">
         <v>147</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" t="s">
         <v>225</v>
       </c>
       <c r="I78" t="s">
@@ -4021,7 +4031,7 @@
       <c r="A79" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>236</v>
       </c>
       <c r="C79" t="s">
@@ -4039,7 +4049,7 @@
       <c r="G79" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" t="s">
         <v>226</v>
       </c>
       <c r="I79" t="s">
@@ -4050,7 +4060,7 @@
       <c r="A80" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>237</v>
       </c>
       <c r="C80" t="s">
@@ -4068,7 +4078,7 @@
       <c r="G80" t="s">
         <v>147</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" t="s">
         <v>227</v>
       </c>
       <c r="I80" t="s">
@@ -4079,7 +4089,7 @@
       <c r="A81" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>236</v>
       </c>
       <c r="C81" t="s">
@@ -4097,7 +4107,7 @@
       <c r="G81" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" t="s">
         <v>228</v>
       </c>
       <c r="I81" t="s">
@@ -4108,7 +4118,7 @@
       <c r="A82" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>237</v>
       </c>
       <c r="C82" t="s">
@@ -4126,7 +4136,7 @@
       <c r="G82" t="s">
         <v>147</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" t="s">
         <v>229</v>
       </c>
       <c r="I82" t="s">
@@ -4137,7 +4147,7 @@
       <c r="A83" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>236</v>
       </c>
       <c r="C83" t="s">
@@ -4155,7 +4165,7 @@
       <c r="G83" t="s">
         <v>147</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" t="s">
         <v>230</v>
       </c>
       <c r="I83" t="s">
@@ -4166,7 +4176,7 @@
       <c r="A84" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>237</v>
       </c>
       <c r="C84" t="s">
@@ -4184,7 +4194,7 @@
       <c r="G84" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>231</v>
       </c>
       <c r="I84" t="s">
@@ -4195,7 +4205,7 @@
       <c r="A85" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>236</v>
       </c>
       <c r="C85" t="s">
@@ -4213,7 +4223,7 @@
       <c r="G85" t="s">
         <v>148</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>232</v>
       </c>
       <c r="I85" t="s">
@@ -4224,7 +4234,7 @@
       <c r="A86" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>237</v>
       </c>
       <c r="C86" t="s">
@@ -4242,7 +4252,7 @@
       <c r="G86" t="s">
         <v>148</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" t="s">
         <v>233</v>
       </c>
       <c r="I86" t="s">
@@ -4253,7 +4263,7 @@
       <c r="A87" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>236</v>
       </c>
       <c r="C87" t="s">
@@ -4271,7 +4281,7 @@
       <c r="G87" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" t="s">
         <v>234</v>
       </c>
       <c r="I87" t="s">
